--- a/outputs/complete_lists/Older Adults/OA S013.xlsx
+++ b/outputs/complete_lists/Older Adults/OA S013.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amuller\Desktop\Alana\UA\R_projects\inflatable-project\outputs\complete_lists\Older Adults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{90AA2C6C-55EF-41E6-9DEA-DC51D3D8E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CFA6E4-F564-4C2A-BED1-E45938EFCB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="780" windowWidth="21260" windowHeight="18260"/>
+    <workbookView xWindow="4940" yWindow="1200" windowWidth="31280" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ten_lists" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="143">
   <si>
     <t>DD_#</t>
   </si>
@@ -446,12 +446,15 @@
   </si>
   <si>
     <t>D12</t>
+  </si>
+  <si>
+    <t>floor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1301,11 +1304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1596,7 +1599,7 @@
         <v>96</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>97</v>
